--- a/plots-drafts/toy-data/data_score_exp.xlsx
+++ b/plots-drafts/toy-data/data_score_exp.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monikafurdyna/Documents/dev/loose_analysis/Executive summary vis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monikafurdyna/Documents/dev/pacta.executive.summary/plots-drafts/toy-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD4C78C-F6A2-E144-84D2-464D35CE3864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB71E6F-7E20-F04E-8FDD-A5060CB469D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-33520" yWindow="4160" windowWidth="28040" windowHeight="17440" xr2:uid="{A60FAC01-BD50-274F-BCA2-1AA1E13B358C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="26">
   <si>
     <t>year</t>
   </si>
@@ -107,6 +107,12 @@
   </si>
   <si>
     <t>all</t>
+  </si>
+  <si>
+    <t>msci_world</t>
+  </si>
+  <si>
+    <t>benchmark</t>
   </si>
 </sst>
 </file>
@@ -464,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD66559C-116D-3942-9BE8-77D8196556AE}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -772,7 +778,7 @@
         <v>5.6347691096261254E-3</v>
       </c>
       <c r="F13">
-        <f t="shared" ref="F13:F27" si="0">1-E13</f>
+        <f t="shared" ref="F13:F28" si="0">1-E13</f>
         <v>0.99436523089037387</v>
       </c>
       <c r="G13">
@@ -1113,6 +1119,54 @@
       </c>
       <c r="G27">
         <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28">
+        <v>2022</v>
+      </c>
+      <c r="E28">
+        <v>0.5</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="G28">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29">
+        <v>2027</v>
+      </c>
+      <c r="E29">
+        <v>0.6</v>
+      </c>
+      <c r="F29">
+        <f t="shared" ref="F29" si="1">1-E29</f>
+        <v>0.4</v>
+      </c>
+      <c r="G29">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/plots-drafts/toy-data/data_score_exp.xlsx
+++ b/plots-drafts/toy-data/data_score_exp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monikafurdyna/Documents/dev/pacta.executive.summary/plots-drafts/toy-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB71E6F-7E20-F04E-8FDD-A5060CB469D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F8A3ECF-8EDC-6844-8147-820AB7123719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-33520" yWindow="4160" windowWidth="28040" windowHeight="17440" xr2:uid="{A60FAC01-BD50-274F-BCA2-1AA1E13B358C}"/>
   </bookViews>
@@ -61,9 +61,6 @@
     <t>this_portfolio</t>
   </si>
   <si>
-    <t>asset_type</t>
-  </si>
-  <si>
     <t>bonds</t>
   </si>
   <si>
@@ -113,6 +110,9 @@
   </si>
   <si>
     <t>benchmark</t>
+  </si>
+  <si>
+    <t>asset_class</t>
   </si>
 </sst>
 </file>
@@ -473,7 +473,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -492,7 +492,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -515,7 +515,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2">
         <v>2022</v>
@@ -538,7 +538,7 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3">
         <v>2027</v>
@@ -555,13 +555,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4">
         <v>2022</v>
@@ -578,13 +578,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5">
         <v>2027</v>
@@ -601,13 +601,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6">
         <v>2022</v>
@@ -624,13 +624,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7">
         <v>2027</v>
@@ -647,13 +647,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8">
         <v>2022</v>
@@ -670,13 +670,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9">
         <v>2027</v>
@@ -693,13 +693,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10">
         <v>2022</v>
@@ -716,13 +716,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11">
         <v>2027</v>
@@ -739,13 +739,13 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D12">
         <v>2022</v>
@@ -763,13 +763,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13">
         <v>2027</v>
@@ -787,13 +787,13 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D14">
         <v>2022</v>
@@ -811,13 +811,13 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D15">
         <v>2027</v>
@@ -835,13 +835,13 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D16">
         <v>2022</v>
@@ -859,13 +859,13 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D17">
         <v>2027</v>
@@ -883,13 +883,13 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D18">
         <v>2022</v>
@@ -907,13 +907,13 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D19">
         <v>2027</v>
@@ -931,13 +931,13 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D20">
         <v>2022</v>
@@ -955,13 +955,13 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D21">
         <v>2027</v>
@@ -979,13 +979,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D22">
         <v>2022</v>
@@ -1003,13 +1003,13 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D23">
         <v>2027</v>
@@ -1027,13 +1027,13 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D24">
         <v>2022</v>
@@ -1051,13 +1051,13 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D25">
         <v>2027</v>
@@ -1075,13 +1075,13 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D26">
         <v>2022</v>
@@ -1099,13 +1099,13 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D27">
         <v>2027</v>
@@ -1123,13 +1123,13 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" t="s">
         <v>24</v>
       </c>
-      <c r="B28" t="s">
-        <v>25</v>
-      </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D28">
         <v>2022</v>
@@ -1147,13 +1147,13 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" t="s">
         <v>24</v>
       </c>
-      <c r="B29" t="s">
-        <v>25</v>
-      </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D29">
         <v>2027</v>
